--- a/medicine/Psychotrope/Darmstädter_Privatbrauerei/Darmstädter_Privatbrauerei.xlsx
+++ b/medicine/Psychotrope/Darmstädter_Privatbrauerei/Darmstädter_Privatbrauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Darmst%C3%A4dter_Privatbrauerei</t>
+          <t>Darmstädter_Privatbrauerei</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Darmstädter Privatbrauerei est une brasserie de Darmstadt. La plus grande brasserie de la ville sort depuis mai 2014 sous la marque Braustüb'l — Darmstädter Braukunst.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Darmst%C3%A4dter_Privatbrauerei</t>
+          <t>Darmstädter_Privatbrauerei</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Rummel crée en 1847 un restaurant doté d'une brasserie près de la ligne de chemin de fer.
 En 1880, la production atteint les limites de sa capacité. La brasserie déménage et produit la Braustüb'l. En 1912, la gare centrale de Darmstadt est bâtie près de la brasserie qui adopte le symbolisme du chemin de fer pour son logo.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Darmst%C3%A4dter_Privatbrauerei</t>
+          <t>Darmstädter_Privatbrauerei</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Braustüb'l Pilsner
 Braustüb'l Pilsner Alkoholfrei
